--- a/PlayerInfo.xlsx
+++ b/PlayerInfo.xlsx
@@ -524,7 +524,7 @@
         <v>10.0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -564,7 +564,7 @@
         <v>5.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>7.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
         <v>3.0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>3.0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
         <v>4.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>5.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -824,7 +824,7 @@
         <v>11.0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>4.0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>2.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>6.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -964,7 +964,7 @@
         <v>11.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>10.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>7.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
